--- a/Mass_Event/Mass_Event/analysis/TicketsMarche/attends_estimate_test.xlsx
+++ b/Mass_Event/Mass_Event/analysis/TicketsMarche/attends_estimate_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,27 +508,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>El Masyada</t>
+          <t>Manal Mohei Eldin &amp; Şirin Pancaroğlu / Regina Zabos / Laura kipp ft. BalQeis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>El Rihany Theater</t>
+          <t>AUC Tahrir Square</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8:00 PM</t>
+          <t xml:space="preserve"> 06:00 PM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>30.05695814787614, 31.243279890052847</t>
+          <t>30.04304943486499, 31.236530904482507</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,33 +537,33 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Manal Mohei Eldin &amp; Şirin Pancaroğlu / Regina Zabos / Laura kipp ft. BalQeis</t>
+          <t>3 Interrupted</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AUC Tahrir Square</t>
+          <t>Rawabet Art Space</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06:00 PM</t>
+          <t xml:space="preserve"> 08:00 PM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>30.04304943486499, 31.236530904482507</t>
+          <t>30.049483336333587, 31.238033769313294</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -572,33 +572,33 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3 Interrupted</t>
+          <t>Sakura Fujiwara / Lela Soto/ Tribute to Ziad Rahbani / Nagham Saleh</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rawabet Art Space</t>
+          <t>AUC Tahrir Square</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08:00 PM</t>
+          <t xml:space="preserve"> 05:00 PM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>30.049483336333587, 31.238033769313294</t>
+          <t>30.04304943486499, 31.236530904482507</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -607,33 +607,33 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Omar khairat: A night at the palace</t>
+          <t>Lily Farid X The Ayoub Sisters (Egypt/ Scotland)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Abdeen Palace</t>
+          <t>Ewart Memorial Hall, AUC Tahrir Square</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 09:00 PM</t>
+          <t xml:space="preserve"> 09:30 PM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30.04341912249461, 31.247195542328324</t>
+          <t>30.042865315718366, 31.236538345225494</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -642,33 +642,33 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sakura Fujiwara / Lela Soto/ Tribute to Ziad Rahbani / Nagham Saleh</t>
+          <t>Aida El Ayoubi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AUC Tahrir Square</t>
+          <t>Ewart Memorial Hall, AUC Tahrir Square</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05:00 PM</t>
+          <t xml:space="preserve"> 09:30 PM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>30.04304943486499, 31.236530904482507</t>
+          <t>30.042865315718366, 31.236538345225494</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -677,76 +677,6 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lily Farid X The Ayoub Sisters (Egypt/ Scotland)</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-10-04</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Ewart Memorial Hall, AUC Tahrir Square</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 09:30 PM</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>30.042865315718366, 31.236538345225494</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>cairo</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Aida El Ayoubi</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-10-05</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Ewart Memorial Hall, AUC Tahrir Square</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 09:30 PM</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>30.042865315718366, 31.236538345225494</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>cairo</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
         <v>400</v>
       </c>
     </row>
